--- a/biology/Zoologie/Cirrhipathes/Cirrhipathes.xlsx
+++ b/biology/Zoologie/Cirrhipathes/Cirrhipathes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirrhipathes est un genre de coraux noirs de la famille des Antipathidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de longs coraux composés le plus souvent d'une seule branche plus ou moins entortillée ; ils sont parfois appelés « virgulaires ».
 L'exosquelette de ces espèces est d'aspect sombre. Le squelette est aussi recouvert par de fines petites épines. Les polypes ont 6 tentacules.
-Ce genre se distingue de son proche parent Stichopathes par le fait que les polypes sont disposés tout autour de la branche, alors qu'on en trouve sur une seule rangée chez Stichopathes[2]. 
+Ce genre se distingue de son proche parent Stichopathes par le fait que les polypes sont disposés tout autour de la branche, alors qu'on en trouve sur une seule rangée chez Stichopathes. 
 Les coraux noirs sont appréciés en bijouterie.
 Ces coraux sont souvent le hôtes de crevettes ou de petits poissons symbiotiques.
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juin 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juin 2015) :
 </t>
         </is>
       </c>
